--- a/Assets/AssetsDevelop/Excels/RolesConfig.xlsx
+++ b/Assets/AssetsDevelop/Excels/RolesConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>animScale</t>
   </si>
   <si>
+    <t>maxFlyCount</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>动画缩放</t>
   </si>
   <si>
+    <t>最多飞行物个数</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -122,6 +128,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>20001</t>
@@ -1070,30 +1079,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.9449541284404" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.8073394495413" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7981651376147" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7155963302752" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7064220183486" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.4495412844037" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.2018348623853" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.2222222222222" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.712962962963" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7037037037037" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.4537037037037" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.2037037037037" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:12">
+    <row r="1" ht="21" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,86 +1139,95 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:12">
+    <row r="2" ht="19" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:12">
+    <row r="3" ht="18" customHeight="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -1224,45 +1242,48 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1302,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1298,7 +1319,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
